--- a/results/faultproneness_sumary.xlsx
+++ b/results/faultproneness_sumary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="230">
   <si>
     <t xml:space="preserve">Repository</t>
   </si>
@@ -38,10 +38,10 @@
     <t xml:space="preserve">270Tetris-master</t>
   </si>
   <si>
-    <t xml:space="preserve">3Droom_2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_Maze</t>
+    <t xml:space="preserve">3Droom 2.0 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maze</t>
   </si>
   <si>
     <t xml:space="preserve">Advanced VR Scripting</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">aeroteque-master</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahoy-Matey</t>
+    <t xml:space="preserve">Ahoy-Matey-Original-master</t>
   </si>
   <si>
     <t xml:space="preserve">ARCHIVED_04_Squashy_Toad_VR-master</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">Creating Scripts</t>
   </si>
   <si>
-    <t xml:space="preserve">Creation_Sandbox</t>
+    <t xml:space="preserve">Creation Sandbox</t>
   </si>
   <si>
     <t xml:space="preserve">CutieKeys-master</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">daydream-experiment-master</t>
   </si>
   <si>
-    <t xml:space="preserve">Development_Workstation_Scene</t>
+    <t xml:space="preserve">Development Workstation Scene</t>
   </si>
   <si>
     <t xml:space="preserve">EpioneProjectFiles</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">LazerNinjaUnity-master</t>
   </si>
   <si>
-    <t xml:space="preserve">Lights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical_VR_Demonstration</t>
+    <t xml:space="preserve">lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical VR Demonstration</t>
   </si>
   <si>
     <t xml:space="preserve">Medieval_Warfare_VR-Unity-master</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">Mobile-Performance-Starter-Project-master</t>
   </si>
   <si>
-    <t xml:space="preserve">Movement Mechanics</t>
+    <t xml:space="preserve">movement Mechanics</t>
   </si>
   <si>
     <t xml:space="preserve">NaviMobile</t>
@@ -674,6 +674,9 @@
     <t xml:space="preserve">TestUtilities</t>
   </si>
   <si>
+    <t xml:space="preserve">Text Adventure Engine</t>
+  </si>
+  <si>
     <t xml:space="preserve">TomaszKlos_EQTechnicalExercise</t>
   </si>
   <si>
@@ -687,6 +690,9 @@
   </si>
   <si>
     <t xml:space="preserve">Utils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VnResourceHRM 8</t>
   </si>
   <si>
     <t xml:space="preserve">Voat</t>
@@ -826,7 +832,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="B120" activeCellId="1" sqref="C2:C108 B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,10 +870,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,10 +1068,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,10 +1090,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,10 +1101,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,10 +1112,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,10 +1123,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +1134,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1156,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1170,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>836</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,10 +1189,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,10 +1200,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,10 +1222,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,10 +1233,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,10 +1244,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,10 +1299,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,10 +1310,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,10 +1365,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,10 +1387,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,10 +1398,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,10 +1420,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,10 +1431,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,10 +1475,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,10 +1519,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,10 +1563,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,10 +1574,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,10 +1596,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,10 +1629,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>1599</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,10 +1640,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,10 +1673,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,10 +1695,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,10 +1717,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>726</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,10 +1761,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,10 +1772,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,10 +1783,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,10 +1805,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,10 +1816,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,10 +1827,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>391</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1852,7 @@
         <v>15</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,10 +1860,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>127</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,10 +1926,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +1948,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,10 +1959,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,10 +1970,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +2039,7 @@
         <v>47</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2127,7 @@
         <v>74</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,10 +2146,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,10 +2157,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2173,15 +2179,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="C108" activeCellId="0" sqref="C2:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -2276,13 +2282,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2338,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2363,10 @@
         <v>137</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,7 +2487,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +2495,10 @@
         <v>149</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +2561,10 @@
         <v>155</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1489</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +2627,10 @@
         <v>161</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>629</v>
+        <v>672</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>6199</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2685,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2704,10 @@
         <v>168</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1030</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2781,10 @@
         <v>175</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>412</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2858,10 @@
         <v>182</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2869,10 @@
         <v>183</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,10 +3034,10 @@
         <v>198</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>2011</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3059,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,7 +3081,7 @@
         <v>32</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3133,10 @@
         <v>207</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,10 +3166,10 @@
         <v>210</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>563</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,13 +3195,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3237,10 +3243,10 @@
         <v>217</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,10 +3254,10 @@
         <v>218</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,10 +3265,10 @@
         <v>219</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3287,10 @@
         <v>221</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3298,10 @@
         <v>222</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3309,10 @@
         <v>223</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,10 +3320,10 @@
         <v>224</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,10 +3331,10 @@
         <v>225</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,10 +3342,10 @@
         <v>226</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,9 +3353,31 @@
         <v>227</v>
       </c>
       <c r="B106" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C108" s="2" t="n">
         <v>249</v>
       </c>
     </row>
